--- a/AED/Labs/Lab2/Book1.xlsx
+++ b/AED/Labs/Lab2/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henri\OneDrive\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FAC91B1-0595-4CE8-BACB-8615F2EAF62E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D90A07-BB79-404F-93FB-DDBD3DEB3E35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{AB3A8E58-7269-43A8-B8B9-57196712ABB5}"/>
   </bookViews>
@@ -98,6 +98,4193 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Quick Sort</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$3:$F$17</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>500000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$3:$J$17</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>808</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2203</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7948</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38982</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>182588</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>764786</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3930135</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17146266</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>65229198</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>404995451</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1698404986</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6645244272</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41312282209</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ACFC-412F-8F45-0FBFE03254F5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2034311039"/>
+        <c:axId val="2034314367"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2034311039"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2034314367"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2034314367"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2034311039"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Quick Union</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.378652668416448E-2"/>
+                  <c:y val="-2.7123797025371828E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$3:$F$17</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>500000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$3:$M$17</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>341</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>818</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3016</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12609</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>55695</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>216082</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1088881</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4692635</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17941782</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>107097636</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>455298546</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1769385226</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11001810151</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3948-4831-9C6B-B2B197C3916A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1672770703"/>
+        <c:axId val="1672770287"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1672770703"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1672770287"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1672770287"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1672770703"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>CWQU</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$3:$F$17</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>500000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$S$3:$S$17</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>651</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1324</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2644</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6766</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13721</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27842</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>68905</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>137642</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>277193</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>694910</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1388726</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2778252</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6942703</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F882-47CC-AD6A-BF9E0B851A4B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="79851455"/>
+        <c:axId val="79851871"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="79851455"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="79851871"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="79851871"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="79851455"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>WQU</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$3:$F$17</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>500000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$P$3:$P$17</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>437</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1774</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4735</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9407</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19348</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>47985</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96723</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>193512</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>488804</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>979822</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1963934</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4899561</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4319-4CB2-9962-4195CF41465C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1678162879"/>
+        <c:axId val="72525087"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1678162879"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="72525087"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="72525087"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1678162879"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7807269A-8EA1-7F80-5D47-B34A4FA2EED4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>547687</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>61912</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66F2870A-446B-C4CE-D780-C5F37D4B1EEF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>528637</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>42862</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A247F121-DAFB-AC19-787A-71E481375A09}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>109537</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>433387</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14257D54-976A-1EF3-F2ED-A513AB1172FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -399,8 +4586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E073149A-CE7B-4B37-8FFD-D885789C45E8}">
   <dimension ref="E2:S17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="S37" sqref="S37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1164,5 +5351,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>